--- a/MuestreoDeDatosHojaDeVidaComputador.xlsx
+++ b/MuestreoDeDatosHojaDeVidaComputador.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Escritorio\Diseño Orientado a Objetos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5537A753-877A-4F4B-835B-DD8330160207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D292DF-B835-4F5C-909E-8D10AD196D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="18" xr2:uid="{B9480CE2-4DA4-4A08-8AF4-3893818E16B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="12" activeTab="17" xr2:uid="{B9480CE2-4DA4-4A08-8AF4-3893818E16B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Institucion" sheetId="3" r:id="rId1"/>
-    <sheet name="Fabricante" sheetId="1" r:id="rId2"/>
-    <sheet name="PerifericoPorFabricante" sheetId="19" r:id="rId3"/>
-    <sheet name="Periferico" sheetId="2" r:id="rId4"/>
-    <sheet name="TipoPeriferico" sheetId="17" r:id="rId5"/>
-    <sheet name="CaracterizacionTipoPeriferico" sheetId="18" r:id="rId6"/>
-    <sheet name="DispositivosCore" sheetId="4" r:id="rId7"/>
-    <sheet name="Ubicacion" sheetId="5" r:id="rId8"/>
-    <sheet name="TipoUbicacion" sheetId="6" r:id="rId9"/>
+    <sheet name="Ubicacion" sheetId="5" r:id="rId2"/>
+    <sheet name="TipoUbicacion" sheetId="6" r:id="rId3"/>
+    <sheet name="Fabricante" sheetId="1" r:id="rId4"/>
+    <sheet name="PerifericoPorFabricante" sheetId="19" r:id="rId5"/>
+    <sheet name="Periferico" sheetId="2" r:id="rId6"/>
+    <sheet name="TipoPeriferico" sheetId="17" r:id="rId7"/>
+    <sheet name="CaracterizacionTipoPeriferico" sheetId="18" r:id="rId8"/>
+    <sheet name="DispositivosCore" sheetId="4" r:id="rId9"/>
     <sheet name="HistorialMantenimiento" sheetId="7" r:id="rId10"/>
     <sheet name="Mantenimiento" sheetId="11" r:id="rId11"/>
     <sheet name="HistorialEstado" sheetId="10" r:id="rId12"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="83">
   <si>
     <t>identificador</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Fabricante</t>
   </si>
   <si>
-    <t>teclado</t>
-  </si>
-  <si>
     <t>Cominacion unica</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>EAFIT</t>
   </si>
   <si>
-    <t>UDA</t>
-  </si>
-  <si>
     <t>RAM</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>GPU</t>
   </si>
   <si>
-    <t>lugar</t>
-  </si>
-  <si>
     <t>oficina</t>
   </si>
   <si>
@@ -122,15 +113,6 @@
     <t>sala computo 2</t>
   </si>
   <si>
-    <t>aula de estudio</t>
-  </si>
-  <si>
-    <t>estacion de trabajo</t>
-  </si>
-  <si>
-    <t>TipoUbicación</t>
-  </si>
-  <si>
     <t>estado</t>
   </si>
   <si>
@@ -236,33 +218,18 @@
     <t>serie</t>
   </si>
   <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>monitor</t>
-  </si>
-  <si>
     <t>caracteristica</t>
   </si>
   <si>
     <t>TipoPeriferico</t>
   </si>
   <si>
-    <t>entrada USB</t>
-  </si>
-  <si>
-    <t>entrada bluetooth</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Mouse Óptico Básico</t>
   </si>
   <si>
     <t>Teclado  ThinkPad</t>
   </si>
   <si>
-    <t>entrada RGB</t>
-  </si>
-  <si>
     <t>CaracterizacionTipoPeriferico</t>
   </si>
   <si>
@@ -285,13 +252,64 @@
   </si>
   <si>
     <t>desarrollo</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>TipoUbicacion</t>
+  </si>
+  <si>
+    <t>Rionegro</t>
+  </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>Antioquia</t>
+  </si>
+  <si>
+    <t>Combinacion Unica</t>
+  </si>
+  <si>
+    <t>cra. 46 No. 40B 50</t>
+  </si>
+  <si>
+    <t>Cra 49, Cl. 7 Sur #50</t>
+  </si>
+  <si>
+    <t>UDEA</t>
+  </si>
+  <si>
+    <t>Cl. 67 #53-108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teclado  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mouse </t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrada </t>
+  </si>
+  <si>
+    <t>salida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +339,18 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -535,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -566,7 +596,6 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="1" applyFill="1"/>
@@ -596,6 +625,12 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -911,63 +946,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8315002-9753-48BB-9149-A2A78D78D81A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C2" s="44" t="str">
+        <f>Ubicacion!D2</f>
+        <v>cra. 46 No. 40B 50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C3" s="63" t="str">
+        <f>Ubicacion!D3</f>
+        <v>Cra 49, Cl. 7 Sur #50</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="C4" s="64" t="str">
+        <f>Ubicacion!D4</f>
+        <v>Cl. 67 #53-108</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" location="Ubicacion!A1" display="Ubicacion!A1" xr:uid="{22E7F9CE-7CE3-49AF-A377-FAF8CB6E42EA}"/>
+    <hyperlink ref="C3" location="Ubicacion!A1" display="Ubicacion!A1" xr:uid="{BBEE6F96-4438-49E4-BCCC-096138DE994F}"/>
+    <hyperlink ref="C4" location="Ubicacion!A1" display="Ubicacion!A1" xr:uid="{E69450A2-AE56-4F86-9DDF-46E298F3978C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -977,7 +1033,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -1002,10 +1058,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,10 +1069,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,10 +1080,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1056,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -1070,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>HistorialMantenimiento!B2</f>
@@ -1086,9 +1142,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="32" t="str">
+        <v>25</v>
+      </c>
+      <c r="C3" s="31" t="str">
         <f>HistorialMantenimiento!B3</f>
         <v xml:space="preserve">d/m/a </v>
       </c>
@@ -1102,9 +1158,9 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="33" t="str">
+        <v>26</v>
+      </c>
+      <c r="C4" s="32" t="str">
         <f>HistorialMantenimiento!B4</f>
         <v xml:space="preserve">d/m/a </v>
       </c>
@@ -1144,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1161,13 +1217,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="34" t="str">
+        <v>29</v>
+      </c>
+      <c r="C2" s="33" t="str">
         <f>Estado!B2</f>
         <v>activo</v>
       </c>
-      <c r="D2" s="34" t="str">
+      <c r="D2" s="33" t="str">
         <f>Mantenimiento!B2</f>
         <v>Mantenimiento Preventivo</v>
       </c>
@@ -1181,13 +1237,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="35" t="str">
+        <v>29</v>
+      </c>
+      <c r="C3" s="34" t="str">
         <f>Estado!B3</f>
         <v>inactivo</v>
       </c>
-      <c r="D3" s="35" t="str">
+      <c r="D3" s="34" t="str">
         <f>Mantenimiento!B3</f>
         <v>Mantenimiento Correctivo</v>
       </c>
@@ -1201,12 +1257,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="36" t="str">
+        <v>29</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="35" t="str">
         <f>Mantenimiento!B4</f>
         <v>Mantenimiento de Software</v>
       </c>
@@ -1248,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -1259,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1270,10 +1326,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1316,9 +1372,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="37" t="str">
+        <v>31</v>
+      </c>
+      <c r="C2" s="36" t="str">
         <f>Fabricante!C2</f>
         <v>lenovo</v>
       </c>
@@ -1332,9 +1388,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="38" t="str">
+        <v>32</v>
+      </c>
+      <c r="C3" s="37" t="str">
         <f>Fabricante!C3</f>
         <v>samsumg</v>
       </c>
@@ -1348,9 +1404,9 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="39" t="str">
+        <v>33</v>
+      </c>
+      <c r="C4" s="38" t="str">
         <f>Fabricante!C4</f>
         <v>asus</v>
       </c>
@@ -1401,10 +1457,10 @@
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="45" t="str">
+      <c r="B2" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="44" t="str">
         <f>Fabricante!B2</f>
         <v>lenovo</v>
       </c>
@@ -1418,9 +1474,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="46" t="str">
+        <v>44</v>
+      </c>
+      <c r="C3" s="45" t="str">
         <f>Fabricante!B3</f>
         <v>samsung</v>
       </c>
@@ -1430,13 +1486,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="48" t="str">
+      <c r="B4" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="47" t="str">
         <f>Fabricante!B4</f>
         <v>asus</v>
       </c>
@@ -1472,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -1480,14 +1536,14 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="49">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>41</v>
+      <c r="B2" s="48" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,10 +1551,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1528,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1548,17 +1604,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="31" t="str">
+        <v>41</v>
+      </c>
+      <c r="C2" s="30" t="str">
         <f>Fabricante!B2</f>
         <v>lenovo</v>
       </c>
-      <c r="D2" s="31" t="str">
+      <c r="D2" s="30" t="str">
         <f>Marca!B2</f>
         <v>ThinkPad</v>
       </c>
-      <c r="E2" s="31" t="str">
+      <c r="E2" s="30" t="str">
         <f>TipoComputadora!B2</f>
         <v>escritorio</v>
       </c>
@@ -1568,21 +1624,21 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="41" t="str">
+      <c r="B3" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="40" t="str">
         <f>Fabricante!B3</f>
         <v>samsung</v>
       </c>
-      <c r="D3" s="41" t="str">
+      <c r="D3" s="40" t="str">
         <f>Marca!B3</f>
         <v>Notebook</v>
       </c>
-      <c r="E3" s="41" t="str">
+      <c r="E3" s="40" t="str">
         <f>TipoComputadora!B3</f>
         <v>portatil</v>
       </c>
@@ -1592,21 +1648,21 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+      <c r="A4" s="41">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="43" t="str">
+      <c r="B4" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="42" t="str">
         <f>Fabricante!B4</f>
         <v>asus</v>
       </c>
-      <c r="D4" s="43" t="str">
+      <c r="D4" s="42" t="str">
         <f>Marca!B4</f>
         <v>VivoBook</v>
       </c>
-      <c r="E4" s="43" t="str">
+      <c r="E4" s="42" t="str">
         <f>TipoComputadora!B3</f>
         <v>portatil</v>
       </c>
@@ -1634,7 +1690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAAEDA7-EF0E-4221-9A1B-BDBE3C2E0E9F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
@@ -1650,32 +1706,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="53">
+      <c r="A2" s="52">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>74</v>
+      <c r="B2" s="52" t="s">
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+      <c r="A3" s="53">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>75</v>
+      <c r="B3" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1683,10 +1739,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5278083-1E8A-4703-8711-436F44BE2F0C}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1721,130 +1777,130 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="55">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="56" t="str">
+      <c r="B2" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="55" t="str">
         <f>DispositivosCore!B2</f>
         <v>RAM</v>
       </c>
-      <c r="D2" s="56" t="str">
+      <c r="D2" s="55" t="str">
         <f>Ubicacion!B2</f>
-        <v>oficina</v>
-      </c>
-      <c r="E2" s="56" t="str">
+        <v>Rionegro</v>
+      </c>
+      <c r="E2" s="55" t="str">
         <f>HistorialEstado!B2</f>
         <v xml:space="preserve">d/m/a  </v>
       </c>
-      <c r="F2" s="56" t="str">
+      <c r="F2" s="55" t="str">
         <f>Serie!B2</f>
         <v>####</v>
       </c>
-      <c r="G2" s="56" t="str">
+      <c r="G2" s="55" t="str">
         <f>Periferico!B2</f>
-        <v>Teclado  ThinkPad</v>
-      </c>
-      <c r="H2" s="56" t="str">
+        <v xml:space="preserve">Teclado  </v>
+      </c>
+      <c r="H2" s="55" t="str">
         <f>Software!B2</f>
         <v>sistema</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+      <c r="A3" s="53">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="57" t="str">
+      <c r="B3" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="56" t="str">
         <f>DispositivosCore!B3</f>
         <v>CPU</v>
       </c>
-      <c r="D3" s="57" t="str">
+      <c r="D3" s="56" t="str">
         <f>Ubicacion!B3</f>
-        <v>sala computo 1</v>
-      </c>
-      <c r="E3" s="57" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="E3" s="56" t="str">
         <f>HistorialEstado!B3</f>
         <v xml:space="preserve">d/m/a  </v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="56" t="str">
         <f>Serie!B3</f>
         <v>####</v>
       </c>
-      <c r="G3" s="57" t="str">
+      <c r="G3" s="56" t="str">
         <f>Periferico!B3</f>
-        <v xml:space="preserve"> Mouse Óptico Básico</v>
-      </c>
-      <c r="H3" s="57" t="str">
+        <v xml:space="preserve"> Mouse </v>
+      </c>
+      <c r="H3" s="56" t="str">
         <f>Software!B3</f>
         <v>aplicación</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
+      <c r="A4" s="57">
         <v>3</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="59" t="str">
+      <c r="B4" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="58" t="str">
         <f>DispositivosCore!B4</f>
         <v>GPU</v>
       </c>
-      <c r="D4" s="59" t="str">
+      <c r="D4" s="58" t="str">
         <f>Ubicacion!B4</f>
-        <v>sala computo 2</v>
-      </c>
-      <c r="E4" s="59" t="str">
+        <v>Medellin</v>
+      </c>
+      <c r="E4" s="58" t="str">
         <f>HistorialEstado!B4</f>
         <v xml:space="preserve">d/m/a  </v>
       </c>
-      <c r="F4" s="59" t="str">
+      <c r="F4" s="58" t="str">
         <f>Serie!B4</f>
         <v>####</v>
       </c>
-      <c r="G4" s="59" t="str">
+      <c r="G4" s="58" t="str">
         <f>Periferico!B4</f>
-        <v>Asus ProArt</v>
-      </c>
-      <c r="H4" s="59" t="str">
+        <v>Monitor</v>
+      </c>
+      <c r="H4" s="58" t="str">
         <f>Software!B4</f>
         <v>desarrollo</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1867,6 +1923,161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF4C3EB-6449-40CE-AF79-1EB9E570916B}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDF3CAE-68C3-4647-83A8-E39585D887C8}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDCCF93-3988-4789-910D-1FF6F1608773}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1930,7 +2141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1A2F87-7AC5-4629-9311-B469A1640E5B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1950,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -1965,7 +2176,7 @@
       </c>
       <c r="B2" s="8" t="str">
         <f>Periferico!B2</f>
-        <v>Teclado  ThinkPad</v>
+        <v xml:space="preserve">Teclado  </v>
       </c>
       <c r="C2" s="8" t="str">
         <f>Fabricante!B2</f>
@@ -1973,41 +2184,41 @@
       </c>
       <c r="D2" s="4" t="str">
         <f>B2&amp;"-"&amp;C2</f>
-        <v>Teclado  ThinkPad-lenovo</v>
+        <v>Teclado  -lenovo</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
+      <c r="A3" s="48">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="50" t="str">
         <f>Periferico!B3</f>
-        <v xml:space="preserve"> Mouse Óptico Básico</v>
-      </c>
-      <c r="C3" s="51" t="str">
+        <v xml:space="preserve"> Mouse </v>
+      </c>
+      <c r="C3" s="50" t="str">
         <f>Fabricante!B3</f>
         <v>samsung</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
-        <v xml:space="preserve"> Mouse Óptico Básico-samsung</v>
+        <v xml:space="preserve"> Mouse -samsung</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="str">
+      <c r="B4" s="51" t="str">
         <f>Periferico!B4</f>
-        <v>Asus ProArt</v>
-      </c>
-      <c r="C4" s="52" t="str">
+        <v>Monitor</v>
+      </c>
+      <c r="C4" s="51" t="str">
         <f>Fabricante!B4</f>
         <v>asus</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Asus ProArt-asus</v>
+        <v>Monitor-asus</v>
       </c>
     </row>
   </sheetData>
@@ -2023,12 +2234,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971C3BDE-8EA4-48EC-8705-9D09E92F929D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,10 +2258,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2058,15 +2269,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>CaracterizacionTipoPeriferico!B2</f>
-        <v>entrada USB</v>
+        <v xml:space="preserve">entrada </v>
       </c>
       <c r="D2" s="4" t="str">
         <f>B2&amp;"-"&amp;C2</f>
-        <v>Teclado  ThinkPad-entrada USB</v>
+        <v xml:space="preserve">Teclado  -entrada </v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2074,15 +2285,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C3" s="7" t="str">
         <f>CaracterizacionTipoPeriferico!B3</f>
-        <v>entrada bluetooth</v>
+        <v xml:space="preserve">entrada </v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
-        <v xml:space="preserve"> Mouse Óptico Básico-entrada bluetooth</v>
+        <v xml:space="preserve"> Mouse -entrada </v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2090,15 +2301,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>CaracterizacionTipoPeriferico!B4</f>
-        <v>entrada RGB</v>
+        <v>salida</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Asus ProArt-entrada RGB</v>
+        <v>Monitor-salida</v>
       </c>
     </row>
   </sheetData>
@@ -2112,18 +2323,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7841D6DE-518E-41C3-8DEF-76BCF2489BC1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2131,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -2142,10 +2353,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2153,10 +2364,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2164,10 +2375,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2175,20 +2386,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90A77EB-97EC-40B0-B810-3738EA923245}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2196,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -2210,15 +2421,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="39" t="str">
+        <v>81</v>
+      </c>
+      <c r="C2" s="38" t="str">
         <f>TipoPeriferico!B2</f>
-        <v>teclado</v>
+        <v>Teclado  ThinkPad</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>B2&amp;"-"&amp;C2</f>
-        <v>entrada USB-teclado</v>
+        <v>entrada -Teclado  ThinkPad</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2226,15 +2437,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="50" t="str">
+        <v>81</v>
+      </c>
+      <c r="C3" s="49" t="str">
         <f>TipoPeriferico!B3</f>
-        <v>mouse</v>
+        <v xml:space="preserve"> Mouse Óptico Básico</v>
       </c>
       <c r="D3" s="4" t="str">
         <f>B3&amp;"-"&amp;C3</f>
-        <v>entrada bluetooth-mouse</v>
+        <v>entrada - Mouse Óptico Básico</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2242,15 +2453,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="38" t="str">
+        <v>82</v>
+      </c>
+      <c r="C4" s="37" t="str">
         <f>TipoPeriferico!B4</f>
-        <v>monitor</v>
+        <v>Asus ProArt</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>B4&amp;"-"&amp;C4</f>
-        <v>entrada RGB-monitor</v>
+        <v>salida-Asus ProArt</v>
       </c>
     </row>
   </sheetData>
@@ -2263,7 +2474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F1B788-7ED7-4E14-9B68-65B832BA0600}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2293,10 +2504,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2304,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2315,162 +2526,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF4C3EB-6449-40CE-AF79-1EB9E570916B}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f>TipoUbicacion!B2</f>
-        <v>estacion de trabajo</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <f>Ubicacion!B2&amp;"-"&amp;Ubicacion!C2</f>
-        <v>oficina-estacion de trabajo</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="30" t="str">
-        <f>TipoUbicacion!B3</f>
-        <v>aula de estudio</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f>Ubicacion!B3&amp;"-"&amp;Ubicacion!C3</f>
-        <v>sala computo 1-aula de estudio</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="31" t="str">
-        <f>TipoUbicacion!B4</f>
-        <v>aula de estudio</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f>Ubicacion!B4&amp;"-"&amp;Ubicacion!C4</f>
-        <v>sala computo 2-aula de estudio</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" location="TipoUbicacion!B2" display="TipoUbicacion!B2" xr:uid="{AE5F77A2-E622-4FAB-A0C1-F8ACB58334D2}"/>
-    <hyperlink ref="C3" location="TipoUbicacion!B3" display="TipoUbicacion!B3" xr:uid="{D8695A96-4935-40DD-B405-B426CE673A1A}"/>
-    <hyperlink ref="C4" location="TipoUbicacion!B4" display="TipoUbicacion!B4" xr:uid="{77E382F3-8B84-47E7-A27E-102919440A8A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDF3CAE-68C3-4647-83A8-E39585D887C8}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/MuestreoDeDatosHojaDeVidaComputador.xlsx
+++ b/MuestreoDeDatosHojaDeVidaComputador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Escritorio\Diseño Orientado a Objetos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5537A753-877A-4F4B-835B-DD8330160207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5537A753-877A-4F4B-835B-DD8330160207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD51121B-62C6-486D-93D4-9CC6D0B12C6D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="18" xr2:uid="{B9480CE2-4DA4-4A08-8AF4-3893818E16B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="7" xr2:uid="{B9480CE2-4DA4-4A08-8AF4-3893818E16B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Institucion" sheetId="3" r:id="rId1"/>
@@ -615,9 +615,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -655,7 +655,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -761,7 +761,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -903,7 +903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1698,7 +1698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5278083-1E8A-4703-8711-436F44BE2F0C}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1871,7 +1871,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,15 +2330,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF4C3EB-6449-40CE-AF79-1EB9E570916B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/MuestreoDeDatosHojaDeVidaComputador.xlsx
+++ b/MuestreoDeDatosHojaDeVidaComputador.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D292DF-B835-4F5C-909E-8D10AD196D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB385F5F-3C6B-47DE-9F9C-993484532876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="12" activeTab="17" xr2:uid="{B9480CE2-4DA4-4A08-8AF4-3893818E16B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="12" activeTab="18" xr2:uid="{B9480CE2-4DA4-4A08-8AF4-3893818E16B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Institucion" sheetId="3" r:id="rId1"/>
@@ -451,24 +451,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -551,8 +533,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC888DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5597D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76B64E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -560,77 +560,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -638,6 +654,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF76B64E"/>
+      <color rgb="FF5597D3"/>
+      <color rgb="FFC888DC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -949,72 +972,73 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44" t="str">
+      <c r="C2" s="4" t="str">
         <f>Ubicacion!D2</f>
         <v>cra. 46 No. 40B 50</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="63" t="str">
+      <c r="C3" s="7" t="str">
         <f>Ubicacion!D3</f>
         <v>Cra 49, Cl. 7 Sur #50</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="64" t="str">
+      <c r="C4" s="9" t="str">
         <f>Ubicacion!D4</f>
         <v>Cl. 67 #53-108</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1033,56 +1057,57 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C1" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1096,75 +1121,75 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="26" t="str">
         <f>HistorialMantenimiento!B2</f>
         <v xml:space="preserve">d/m/a </v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="5" t="str">
         <f>B2&amp;"-"&amp;C2</f>
         <v xml:space="preserve">Mantenimiento Preventivo-d/m/a </v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="38">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="31" t="str">
+      <c r="C3" s="39" t="str">
         <f>HistorialMantenimiento!B3</f>
         <v xml:space="preserve">d/m/a </v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="5" t="str">
         <f>B3&amp;"-"&amp;C3</f>
         <v xml:space="preserve">Mantenimiento Correctivo-d/m/a </v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="32" t="str">
+      <c r="C4" s="40" t="str">
         <f>HistorialMantenimiento!B4</f>
         <v xml:space="preserve">d/m/a </v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <f>B4&amp;"-"&amp;C4</f>
         <v xml:space="preserve">Mantenimiento de Software-d/m/a </v>
       </c>
@@ -1184,89 +1209,90 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="33" t="str">
+      <c r="C2" s="42" t="str">
         <f>Estado!B2</f>
         <v>activo</v>
       </c>
-      <c r="D2" s="33" t="str">
+      <c r="D2" s="42" t="str">
         <f>Mantenimiento!B2</f>
         <v>Mantenimiento Preventivo</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="5" t="str">
         <f>B2&amp;"-"&amp;C2&amp;"-"&amp;D2</f>
         <v>d/m/a  -activo-Mantenimiento Preventivo</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="34" t="str">
+      <c r="C3" s="44" t="str">
         <f>Estado!B3</f>
         <v>inactivo</v>
       </c>
-      <c r="D3" s="34" t="str">
+      <c r="D3" s="44" t="str">
         <f>Mantenimiento!B3</f>
         <v>Mantenimiento Correctivo</v>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" s="5" t="str">
         <f>B3&amp;"-"&amp;C3&amp;"-"&amp;D3</f>
         <v>d/m/a  -inactivo-Mantenimiento Correctivo</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="45">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="35" t="str">
+      <c r="D4" s="46" t="str">
         <f>Mantenimiento!B4</f>
         <v>Mantenimiento de Software</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="5" t="str">
         <f>B4&amp;"-"&amp;C4&amp;"-"&amp;D4</f>
         <v>d/m/a  -activo-Mantenimiento de Software</v>
       </c>
@@ -1290,45 +1316,46 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="47" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1342,7 +1369,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,63 +1381,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="36" t="str">
+      <c r="C2" s="49" t="str">
         <f>Fabricante!C2</f>
         <v>lenovo</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="5" t="str">
         <f>B2&amp;"-"&amp;C2</f>
         <v>audifonos-lenovo</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="37" t="str">
+      <c r="C3" s="34" t="str">
         <f>Fabricante!C3</f>
         <v>samsumg</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="5" t="str">
         <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
         <v>camara-samsumg</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="38" t="str">
+      <c r="C4" s="31" t="str">
         <f>Fabricante!C4</f>
         <v>asus</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>conector ethernet-asus</v>
       </c>
@@ -1430,73 +1457,75 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="44" t="str">
+      <c r="C2" s="4" t="str">
         <f>Fabricante!B2</f>
         <v>lenovo</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="5" t="str">
         <f>B2&amp;"-"&amp;C2</f>
         <v>ThinkPad-lenovo</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="45" t="str">
+      <c r="C3" s="51" t="str">
         <f>Fabricante!B3</f>
         <v>samsung</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="5" t="str">
         <f>B3&amp;"-"&amp;C3</f>
         <v>Notebook-samsung</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+      <c r="A4" s="52">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="47" t="str">
+      <c r="C4" s="53" t="str">
         <f>Fabricante!B4</f>
         <v>asus</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <f>B4&amp;"-"&amp;C4</f>
         <v>VivoBook-asus</v>
       </c>
@@ -1515,45 +1544,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FB5BF6-4921-4CDF-BC90-ECECEE962C84}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1567,106 +1599,107 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="30" t="str">
+      <c r="C2" s="54" t="str">
         <f>Fabricante!B2</f>
         <v>lenovo</v>
       </c>
-      <c r="D2" s="30" t="str">
+      <c r="D2" s="54" t="str">
         <f>Marca!B2</f>
         <v>ThinkPad</v>
       </c>
-      <c r="E2" s="30" t="str">
+      <c r="E2" s="54" t="str">
         <f>TipoComputadora!B2</f>
         <v>escritorio</v>
       </c>
-      <c r="F2" s="4" t="str">
+      <c r="F2" s="5" t="str">
         <f>B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
         <v>####-lenovo-ThinkPad-escritorio</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="A3" s="55">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="40" t="str">
+      <c r="C3" s="56" t="str">
         <f>Fabricante!B3</f>
         <v>samsung</v>
       </c>
-      <c r="D3" s="40" t="str">
+      <c r="D3" s="56" t="str">
         <f>Marca!B3</f>
         <v>Notebook</v>
       </c>
-      <c r="E3" s="40" t="str">
+      <c r="E3" s="56" t="str">
         <f>TipoComputadora!B3</f>
         <v>portatil</v>
       </c>
-      <c r="F3" s="4" t="str">
+      <c r="F3" s="5" t="str">
         <f>B3&amp;"-"&amp;C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
         <v>####-samsung-Notebook-portatil</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="57">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="42" t="str">
+      <c r="C4" s="58" t="str">
         <f>Fabricante!B4</f>
         <v>asus</v>
       </c>
-      <c r="D4" s="42" t="str">
+      <c r="D4" s="58" t="str">
         <f>Marca!B4</f>
         <v>VivoBook</v>
       </c>
-      <c r="E4" s="42" t="str">
+      <c r="E4" s="58" t="str">
         <f>TipoComputadora!B3</f>
         <v>portatil</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="5" t="str">
         <f>B4&amp;"-"&amp;C4&amp;"-"&amp;D4&amp;"-"&amp;E4</f>
         <v>####-asus-VivoBook-portatil</v>
       </c>
@@ -1690,58 +1723,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAAEDA7-EF0E-4221-9A1B-BDBE3C2E0E9F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
+      <c r="A2" s="59">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
+      <c r="A3" s="60">
         <v>2</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1754,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5278083-1E8A-4703-8711-436F44BE2F0C}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,143 +1796,145 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="A2" s="61">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="55" t="str">
+      <c r="C2" s="62" t="str">
         <f>DispositivosCore!B2</f>
         <v>RAM</v>
       </c>
-      <c r="D2" s="55" t="str">
+      <c r="D2" s="62" t="str">
         <f>Ubicacion!B2</f>
         <v>Rionegro</v>
       </c>
-      <c r="E2" s="55" t="str">
+      <c r="E2" s="62" t="str">
         <f>HistorialEstado!B2</f>
         <v xml:space="preserve">d/m/a  </v>
       </c>
-      <c r="F2" s="55" t="str">
+      <c r="F2" s="62" t="str">
         <f>Serie!B2</f>
         <v>####</v>
       </c>
-      <c r="G2" s="55" t="str">
+      <c r="G2" s="62" t="str">
         <f>Periferico!B2</f>
         <v xml:space="preserve">Teclado  </v>
       </c>
-      <c r="H2" s="55" t="str">
+      <c r="H2" s="62" t="str">
         <f>Software!B2</f>
         <v>sistema</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
+      <c r="A3" s="60">
         <v>2</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="56" t="str">
+      <c r="C3" s="63" t="str">
         <f>DispositivosCore!B3</f>
         <v>CPU</v>
       </c>
-      <c r="D3" s="56" t="str">
+      <c r="D3" s="63" t="str">
         <f>Ubicacion!B3</f>
         <v>Medellin</v>
       </c>
-      <c r="E3" s="56" t="str">
+      <c r="E3" s="63" t="str">
         <f>HistorialEstado!B3</f>
         <v xml:space="preserve">d/m/a  </v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="63" t="str">
         <f>Serie!B3</f>
         <v>####</v>
       </c>
-      <c r="G3" s="56" t="str">
+      <c r="G3" s="63" t="str">
         <f>Periferico!B3</f>
         <v xml:space="preserve"> Mouse </v>
       </c>
-      <c r="H3" s="56" t="str">
+      <c r="H3" s="63" t="str">
         <f>Software!B3</f>
         <v>aplicación</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="57">
+      <c r="A4" s="64">
         <v>3</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="58" t="str">
+      <c r="C4" s="65" t="str">
         <f>DispositivosCore!B4</f>
         <v>GPU</v>
       </c>
-      <c r="D4" s="58" t="str">
+      <c r="D4" s="65" t="str">
         <f>Ubicacion!B4</f>
         <v>Medellin</v>
       </c>
-      <c r="E4" s="58" t="str">
+      <c r="E4" s="65" t="str">
         <f>HistorialEstado!B4</f>
         <v xml:space="preserve">d/m/a  </v>
       </c>
-      <c r="F4" s="58" t="str">
+      <c r="F4" s="65" t="str">
         <f>Serie!B4</f>
         <v>####</v>
       </c>
-      <c r="G4" s="58" t="str">
+      <c r="G4" s="65" t="str">
         <f>Periferico!B4</f>
         <v>Monitor</v>
       </c>
-      <c r="H4" s="58" t="str">
+      <c r="H4" s="65" t="str">
         <f>Software!B4</f>
         <v>desarrollo</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1927,54 +1962,54 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -1983,7 +2018,7 @@
       <c r="B3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="14" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -1993,20 +2028,20 @@
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2018,57 +2053,57 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2082,56 +2117,57 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2146,77 +2182,78 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="21" t="str">
         <f>Periferico!B2</f>
         <v xml:space="preserve">Teclado  </v>
       </c>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="21" t="str">
         <f>Fabricante!B2</f>
         <v>lenovo</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="5" t="str">
         <f>B2&amp;"-"&amp;C2</f>
         <v>Teclado  -lenovo</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="str">
+      <c r="B3" s="23" t="str">
         <f>Periferico!B3</f>
         <v xml:space="preserve"> Mouse </v>
       </c>
-      <c r="C3" s="50" t="str">
+      <c r="C3" s="23" t="str">
         <f>Fabricante!B3</f>
         <v>samsung</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="5" t="str">
         <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
         <v xml:space="preserve"> Mouse -samsung</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="51" t="str">
+      <c r="B4" s="24" t="str">
         <f>Periferico!B4</f>
         <v>Monitor</v>
       </c>
-      <c r="C4" s="51" t="str">
+      <c r="C4" s="24" t="str">
         <f>Fabricante!B4</f>
         <v>asus</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Monitor-asus</v>
       </c>
@@ -2239,75 +2276,75 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="26" t="str">
         <f>CaracterizacionTipoPeriferico!B2</f>
         <v xml:space="preserve">entrada </v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="5" t="str">
         <f>B2&amp;"-"&amp;C2</f>
         <v xml:space="preserve">Teclado  -entrada </v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="28" t="str">
         <f>CaracterizacionTipoPeriferico!B3</f>
         <v xml:space="preserve">entrada </v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="5" t="str">
         <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
         <v xml:space="preserve"> Mouse -entrada </v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="21" t="str">
         <f>CaracterizacionTipoPeriferico!B4</f>
         <v>salida</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Monitor-salida</v>
       </c>
@@ -2328,7 +2365,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,35 +2375,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2377,7 +2414,7 @@
       <c r="B4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2391,75 +2428,75 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="38" t="str">
+      <c r="C2" s="31" t="str">
         <f>TipoPeriferico!B2</f>
         <v>Teclado  ThinkPad</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="5" t="str">
         <f>B2&amp;"-"&amp;C2</f>
         <v>entrada -Teclado  ThinkPad</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="49" t="str">
+      <c r="C3" s="33" t="str">
         <f>TipoPeriferico!B3</f>
         <v xml:space="preserve"> Mouse Óptico Básico</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="5" t="str">
         <f>B3&amp;"-"&amp;C3</f>
         <v>entrada - Mouse Óptico Básico</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="37" t="str">
+      <c r="C4" s="34" t="str">
         <f>TipoPeriferico!B4</f>
         <v>Asus ProArt</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="5" t="str">
         <f>B4&amp;"-"&amp;C4</f>
         <v>salida-Asus ProArt</v>
       </c>
@@ -2479,56 +2516,57 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C1" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
